--- a/data/excel/2024/03/02.xlsx
+++ b/data/excel/2024/03/02.xlsx
@@ -16,6 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
+    <t>Max Price</t>
+  </si>
+  <si>
+    <t>Min Price</t>
+  </si>
+  <si>
     <t>Avg Price</t>
   </si>
   <si>
@@ -28,12 +34,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Max Price</t>
-  </si>
-  <si>
-    <t>Min Price</t>
-  </si>
-  <si>
     <t>2024-03-02</t>
   </si>
   <si>
@@ -61,16 +61,19 @@
     <t>65.00</t>
   </si>
   <si>
+    <t>Tomato Small(Local)</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>22.50</t>
   </si>
   <si>
-    <t>Tomato Small(Local)</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>20.00</t>
+    <t>Tomato Small(Tunnel)</t>
   </si>
   <si>
     <t>30.00</t>
@@ -79,33 +82,30 @@
     <t>27.50</t>
   </si>
   <si>
-    <t>Tomato Small(Tunnel)</t>
-  </si>
-  <si>
     <t>Tomato Small(Terai)</t>
   </si>
   <si>
     <t>35.00</t>
   </si>
   <si>
+    <t>33.50</t>
+  </si>
+  <si>
     <t>Potato Red</t>
   </si>
   <si>
     <t>32.00</t>
   </si>
   <si>
-    <t>33.50</t>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>36.00</t>
   </si>
   <si>
     <t>Potato Red(Indian)</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>Carrot(Local)</t>
   </si>
   <si>
+    <t>Carrot(Terai)</t>
+  </si>
+  <si>
     <t>28.33</t>
   </si>
   <si>
-    <t>Carrot(Terai)</t>
-  </si>
-  <si>
     <t>Cabbage(Local)</t>
   </si>
   <si>
@@ -202,13 +202,16 @@
     <t>French Bean(Hybrid)</t>
   </si>
   <si>
+    <t>126.67</t>
+  </si>
+  <si>
     <t>French Bean(Rajma)</t>
   </si>
   <si>
     <t>130.00</t>
   </si>
   <si>
-    <t>126.67</t>
+    <t>Sword Bean</t>
   </si>
   <si>
     <t>100.00</t>
@@ -217,9 +220,6 @@
     <t>106.67</t>
   </si>
   <si>
-    <t>Sword Bean</t>
-  </si>
-  <si>
     <t>Bitter Gourd</t>
   </si>
   <si>
@@ -229,18 +229,18 @@
     <t>Bottle Gourd</t>
   </si>
   <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>Pointed Gourd(Terai)</t>
+  </si>
+  <si>
     <t>320.00</t>
   </si>
   <si>
     <t>300.00</t>
   </si>
   <si>
-    <t>310.00</t>
-  </si>
-  <si>
-    <t>Pointed Gourd(Terai)</t>
-  </si>
-  <si>
     <t>Smooth Gourd</t>
   </si>
   <si>
@@ -259,12 +259,12 @@
     <t>Okara</t>
   </si>
   <si>
+    <t>Sweet Potato</t>
+  </si>
+  <si>
     <t>63.33</t>
   </si>
   <si>
-    <t>Sweet Potato</t>
-  </si>
-  <si>
     <t>Barela</t>
   </si>
   <si>
@@ -277,12 +277,12 @@
     <t>Christophine</t>
   </si>
   <si>
+    <t>Brd Leaf Mustard</t>
+  </si>
+  <si>
     <t>46.67</t>
   </si>
   <si>
-    <t>Brd Leaf Mustard</t>
-  </si>
-  <si>
     <t>Spinach Leaf</t>
   </si>
   <si>
@@ -304,15 +304,15 @@
     <t>Yam</t>
   </si>
   <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
     <t>Mushroom(Kanya)</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
     <t>Mushroom(Button)</t>
   </si>
   <si>
@@ -325,18 +325,18 @@
     <t>425.00</t>
   </si>
   <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
     <t>Asparagus</t>
   </si>
   <si>
     <t>1300.00</t>
   </si>
   <si>
-    <t>1000.00</t>
-  </si>
-  <si>
-    <t>1150.00</t>
-  </si>
-  <si>
     <t>Neuro</t>
   </si>
   <si>
@@ -346,15 +346,15 @@
     <t>Sugarbeet</t>
   </si>
   <si>
+    <t>Drumstick</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
     <t>190.00</t>
   </si>
   <si>
-    <t>Drumstick</t>
-  </si>
-  <si>
-    <t>200.00</t>
-  </si>
-  <si>
     <t>Red Cabbbage</t>
   </si>
   <si>
@@ -388,57 +388,60 @@
     <t>375.00</t>
   </si>
   <si>
+    <t>75.00</t>
+  </si>
+  <si>
     <t>Turnip A</t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>156.67</t>
   </si>
   <si>
     <t>Tamarind</t>
   </si>
   <si>
+    <t>105.00</t>
+  </si>
+  <si>
     <t>Bamboo Shoot</t>
   </si>
   <si>
-    <t>105.00</t>
-  </si>
-  <si>
     <t>Tofu</t>
   </si>
   <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
     <t>Gundruk</t>
   </si>
   <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>275.00</t>
+    <t>Apple(Jholey)</t>
+  </si>
+  <si>
+    <t>220.00</t>
   </si>
   <si>
     <t>210.00</t>
   </si>
   <si>
-    <t>Apple(Jholey)</t>
-  </si>
-  <si>
-    <t>220.00</t>
+    <t>Apple(Fuji)</t>
   </si>
   <si>
     <t>325.00</t>
   </si>
   <si>
-    <t>Apple(Fuji)</t>
-  </si>
-  <si>
     <t>Banana</t>
   </si>
   <si>
     <t>Per Dozen</t>
   </si>
   <si>
+    <t>Lime</t>
+  </si>
+  <si>
     <t>280.00</t>
   </si>
   <si>
@@ -448,9 +451,6 @@
     <t>260.00</t>
   </si>
   <si>
-    <t>Lime</t>
-  </si>
-  <si>
     <t>290.00</t>
   </si>
   <si>
@@ -472,18 +472,18 @@
     <t>Water Melon(Green)</t>
   </si>
   <si>
+    <t>145.00</t>
+  </si>
+  <si>
     <t>Sweet Orange</t>
   </si>
   <si>
-    <t>145.00</t>
+    <t>Mandarin</t>
   </si>
   <si>
     <t>235.00</t>
   </si>
   <si>
-    <t>Mandarin</t>
-  </si>
-  <si>
     <t>Pineapple</t>
   </si>
   <si>
@@ -514,12 +514,12 @@
     <t>Papaya(Indian)</t>
   </si>
   <si>
+    <t>Guava</t>
+  </si>
+  <si>
     <t>155.00</t>
   </si>
   <si>
-    <t>Guava</t>
-  </si>
-  <si>
     <t>Mombin</t>
   </si>
   <si>
@@ -586,13 +586,13 @@
     <t>Clive Green</t>
   </si>
   <si>
+    <t>Fish Fresh(Rahu)</t>
+  </si>
+  <si>
     <t>370.00</t>
   </si>
   <si>
     <t>360.00</t>
-  </si>
-  <si>
-    <t>Fish Fresh(Rahu)</t>
   </si>
   <si>
     <t>270.00</t>
@@ -922,22 +922,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -985,19 +985,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1005,19 +1005,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1034,10 +1034,10 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -1045,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1054,10 +1054,10 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -1065,19 +1065,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -1114,7 +1114,7 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -1125,19 +1125,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -1154,7 +1154,7 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
         <v>39</v>
@@ -1171,13 +1171,13 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -1234,7 +1234,7 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
         <v>39</v>
@@ -1271,13 +1271,13 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -1294,7 +1294,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
         <v>39</v>
@@ -1405,19 +1405,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
         <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26">
@@ -1425,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -1434,10 +1434,10 @@
         <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -1451,7 +1451,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" t="s">
         <v>54</v>
@@ -1485,19 +1485,19 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
         <v>74</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>71</v>
-      </c>
-      <c r="E29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -1511,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
         <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -1637,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -1705,7 +1705,7 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
@@ -1717,7 +1717,7 @@
         <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41">
@@ -1774,7 +1774,7 @@
         <v>34</v>
       </c>
       <c r="E43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s">
         <v>23</v>
@@ -1865,7 +1865,7 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
@@ -1874,10 +1874,10 @@
         <v>59</v>
       </c>
       <c r="E48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" t="s">
         <v>97</v>
-      </c>
-      <c r="F48" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="49">
@@ -1905,19 +1905,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" t="s">
         <v>103</v>
       </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>104</v>
-      </c>
-      <c r="E50" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="51">
@@ -1985,19 +1985,19 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" t="s">
         <v>111</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
-        <v>112</v>
       </c>
       <c r="E54" t="s">
         <v>58</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55">
@@ -2071,7 +2071,7 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
         <v>30</v>
@@ -2091,10 +2091,10 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F59" t="s">
         <v>118</v>
@@ -2145,7 +2145,7 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
@@ -2157,7 +2157,7 @@
         <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63">
@@ -2174,7 +2174,7 @@
         <v>59</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F63" t="s">
         <v>126</v>
@@ -2185,7 +2185,7 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
@@ -2194,10 +2194,10 @@
         <v>55</v>
       </c>
       <c r="E64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65">
@@ -2214,7 +2214,7 @@
         <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F65" t="s">
         <v>59</v>
@@ -2225,19 +2225,19 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E66" t="s">
         <v>131</v>
       </c>
-      <c r="C66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>132</v>
-      </c>
-      <c r="F66" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -2245,19 +2245,19 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
         <v>135</v>
       </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>111</v>
+      </c>
+      <c r="F67" t="s">
         <v>136</v>
-      </c>
-      <c r="E67" t="s">
-        <v>112</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -2265,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
@@ -2274,10 +2274,10 @@
         <v>122</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F68" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69">
@@ -2291,13 +2291,13 @@
         <v>140</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E69" t="s">
         <v>54</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70">
@@ -2305,19 +2305,19 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" t="s">
         <v>144</v>
-      </c>
-      <c r="C70" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" t="s">
-        <v>141</v>
-      </c>
-      <c r="E70" t="s">
-        <v>142</v>
-      </c>
-      <c r="F70" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -2331,10 +2331,10 @@
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F71" t="s">
         <v>145</v>
@@ -2351,13 +2351,13 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E72" t="s">
         <v>54</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73">
@@ -2371,13 +2371,13 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E73" t="s">
         <v>58</v>
       </c>
       <c r="F73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74">
@@ -2394,7 +2394,7 @@
         <v>59</v>
       </c>
       <c r="E74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F74" t="s">
         <v>126</v>
@@ -2411,7 +2411,7 @@
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E75" t="s">
         <v>30</v>
@@ -2445,19 +2445,19 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" t="s">
+        <v>96</v>
+      </c>
+      <c r="F77" t="s">
         <v>152</v>
-      </c>
-      <c r="C77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77" t="s">
-        <v>97</v>
-      </c>
-      <c r="F77" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="78">
@@ -2465,19 +2465,19 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>131</v>
+      </c>
+      <c r="E78" t="s">
+        <v>135</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="C78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" t="s">
-        <v>132</v>
-      </c>
-      <c r="E78" t="s">
-        <v>136</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="79">
@@ -2494,10 +2494,10 @@
         <v>59</v>
       </c>
       <c r="E79" t="s">
+        <v>96</v>
+      </c>
+      <c r="F79" t="s">
         <v>97</v>
-      </c>
-      <c r="F79" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="80">
@@ -2514,7 +2514,7 @@
         <v>54</v>
       </c>
       <c r="E80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F80" t="s">
         <v>55</v>
@@ -2591,13 +2591,13 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85">
@@ -2645,7 +2645,7 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
@@ -2654,10 +2654,10 @@
         <v>59</v>
       </c>
       <c r="E87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88">
@@ -2671,13 +2671,13 @@
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
         <v>54</v>
       </c>
       <c r="F88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89">
@@ -2711,7 +2711,7 @@
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E90" t="s">
         <v>30</v>
@@ -2731,13 +2731,13 @@
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
@@ -2811,13 +2811,13 @@
         <v>8</v>
       </c>
       <c r="D95" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" t="s">
+        <v>111</v>
+      </c>
+      <c r="F95" t="s">
         <v>136</v>
-      </c>
-      <c r="E95" t="s">
-        <v>112</v>
-      </c>
-      <c r="F95" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="96">
@@ -2891,7 +2891,7 @@
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E99" t="s">
         <v>30</v>
@@ -2914,7 +2914,7 @@
         <v>54</v>
       </c>
       <c r="E100" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F100" t="s">
         <v>55</v>
@@ -2931,13 +2931,13 @@
         <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E101" t="s">
         <v>54</v>
       </c>
       <c r="F101" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102">
@@ -2971,10 +2971,10 @@
         <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F103" t="s">
         <v>188</v>
@@ -2994,7 +2994,7 @@
         <v>54</v>
       </c>
       <c r="E104" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F104" t="s">
         <v>55</v>
@@ -3005,19 +3005,19 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E105" t="s">
         <v>122</v>
       </c>
       <c r="F105" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="106">
@@ -3031,10 +3031,10 @@
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E106" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F106" t="s">
         <v>193</v>
@@ -3054,10 +3054,10 @@
         <v>122</v>
       </c>
       <c r="E107" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F107" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108">
@@ -3071,13 +3071,13 @@
         <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E108" t="s">
         <v>122</v>
       </c>
       <c r="F108" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109">
@@ -3091,13 +3091,13 @@
         <v>198</v>
       </c>
       <c r="D109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E109" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
